--- a/PMConverter/data_analyse/output/C2011-06 Veterinary Exposition.xlsx
+++ b/PMConverter/data_analyse/output/C2011-06 Veterinary Exposition.xlsx
@@ -11982,6 +11982,9 @@
       <c r="E2" s="2" t="s">
         <v>396</v>
       </c>
+      <c r="G2" s="6">
+        <v>80920110000</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
